--- a/XCTFRoster2122.xlsx
+++ b/XCTFRoster2122.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgarnet0\Dropbox\2021XC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgarnet0\Documents\GitHub\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CC55B52-EE33-4307-A231-95D0468EFCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8030A160-61A4-4FEE-B7B9-493DE5DB0AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1B02BDCC-3959-4059-9C9A-A0A28F1A0779}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="223">
   <si>
     <t>First</t>
   </si>
@@ -613,9 +613,6 @@
     <t>Station</t>
   </si>
   <si>
-    <t>Bench</t>
-  </si>
-  <si>
     <t>1A</t>
   </si>
   <si>
@@ -646,9 +643,6 @@
     <t>5B</t>
   </si>
   <si>
-    <t>Squat</t>
-  </si>
-  <si>
     <t>Row</t>
   </si>
   <si>
@@ -688,12 +682,6 @@
     <t>Reps</t>
   </si>
   <si>
-    <t>2x10</t>
-  </si>
-  <si>
-    <t>2x6</t>
-  </si>
-  <si>
     <t>3x8</t>
   </si>
   <si>
@@ -703,7 +691,22 @@
     <t>3x10</t>
   </si>
   <si>
-    <t>Clam shell And Fire hydrants</t>
+    <t>Arm Extensions</t>
+  </si>
+  <si>
+    <t>2x10 each</t>
+  </si>
+  <si>
+    <t>Lunges</t>
+  </si>
+  <si>
+    <t>2x8</t>
+  </si>
+  <si>
+    <t>Wallsit</t>
+  </si>
+  <si>
+    <t>5min</t>
   </si>
 </sst>
 </file>
@@ -2557,10 +2560,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A364778-3C6F-4471-AB5C-03062E76114C}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2582,22 +2585,22 @@
         <v>189</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>190</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>189</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2611,23 +2614,23 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G2" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I2" s="5">
         <v>1</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2641,23 +2644,23 @@
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G3" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I3" s="5">
         <v>1</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2671,23 +2674,23 @@
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G4" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I4" s="5">
         <v>2</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2701,23 +2704,23 @@
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G5" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I5" s="5">
         <v>2</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2731,23 +2734,23 @@
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I6" s="5">
         <v>3</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2761,23 +2764,23 @@
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I7" s="5">
         <v>3</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2791,23 +2794,23 @@
         <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I8" s="5">
         <v>4</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2821,23 +2824,23 @@
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I9" s="5">
         <v>4</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2851,23 +2854,23 @@
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I10" s="5">
         <v>5</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2881,23 +2884,23 @@
         <v>3</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I11" s="5">
         <v>5</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2911,23 +2914,23 @@
         <v>3</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G12" t="s">
         <v>221</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I12" s="5">
         <v>6</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2941,23 +2944,23 @@
         <v>4</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G13" t="s">
         <v>221</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I13" s="5">
         <v>6</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2971,23 +2974,23 @@
         <v>4</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I14" s="5">
         <v>7</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -3001,23 +3004,23 @@
         <v>4</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I15" s="5">
         <v>7</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3031,7 +3034,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E16" s="5"/>
     </row>
@@ -3046,210 +3049,195 @@
         <v>5</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="C18" s="5">
         <v>5</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C19" s="5">
         <v>5</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="C20" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="C21" s="5">
         <v>6</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C22" s="5">
         <v>6</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C23" s="5">
         <v>6</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C24" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C25" s="5">
         <v>7</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="C26" s="5">
         <v>7</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>175</v>
+        <v>36</v>
       </c>
       <c r="C27" s="5">
         <v>7</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="C28" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B29" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C29" s="5">
         <v>8</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>145</v>
-      </c>
-      <c r="B30" t="s">
-        <v>146</v>
-      </c>
-      <c r="C30" s="5">
-        <v>8</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E30" s="5"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D31">
-    <sortCondition ref="C2:C31"/>
-    <sortCondition ref="D2:D31"/>
-    <sortCondition ref="B2:B31"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D30">
+    <sortCondition ref="C2:C30"/>
+    <sortCondition ref="D2:D30"/>
+    <sortCondition ref="B2:B30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/XCTFRoster2122.xlsx
+++ b/XCTFRoster2122.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgarnet0\Documents\GitHub\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8030A160-61A4-4FEE-B7B9-493DE5DB0AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49FDD01-4275-4261-BAA6-11566586AB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1B02BDCC-3959-4059-9C9A-A0A28F1A0779}"/>
   </bookViews>
@@ -658,9 +658,6 @@
     <t>6B</t>
   </si>
   <si>
-    <t>Dips</t>
-  </si>
-  <si>
     <t>7A</t>
   </si>
   <si>
@@ -691,22 +688,25 @@
     <t>3x10</t>
   </si>
   <si>
-    <t>Arm Extensions</t>
-  </si>
-  <si>
-    <t>2x10 each</t>
-  </si>
-  <si>
-    <t>Lunges</t>
-  </si>
-  <si>
     <t>2x8</t>
   </si>
   <si>
-    <t>Wallsit</t>
-  </si>
-  <si>
-    <t>5min</t>
+    <t>Bench</t>
+  </si>
+  <si>
+    <t>Step Ups</t>
+  </si>
+  <si>
+    <t>Toe Taps</t>
+  </si>
+  <si>
+    <t>Tricep Curls</t>
+  </si>
+  <si>
+    <t>2x10</t>
+  </si>
+  <si>
+    <t>2x2min</t>
   </si>
 </sst>
 </file>
@@ -2563,7 +2563,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2585,22 +2585,22 @@
         <v>189</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>190</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>213</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>189</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2614,7 +2614,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" t="s">
@@ -2624,13 +2624,13 @@
         <v>217</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="I2" s="5">
         <v>1</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2644,7 +2644,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" t="s">
@@ -2654,13 +2654,13 @@
         <v>217</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="I3" s="5">
         <v>1</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2674,23 +2674,23 @@
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" t="s">
         <v>193</v>
       </c>
       <c r="G4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I4" s="5">
         <v>2</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2704,23 +2704,23 @@
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" t="s">
         <v>194</v>
       </c>
       <c r="G5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I5" s="5">
         <v>2</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2734,7 +2734,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" t="s">
@@ -2744,13 +2744,13 @@
         <v>201</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I6" s="5">
         <v>3</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2764,7 +2764,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" t="s">
@@ -2774,13 +2774,13 @@
         <v>201</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I7" s="5">
         <v>3</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2794,7 +2794,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" t="s">
@@ -2804,13 +2804,13 @@
         <v>202</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I8" s="5">
         <v>4</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2824,7 +2824,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" t="s">
@@ -2834,13 +2834,13 @@
         <v>202</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I9" s="5">
         <v>4</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2854,7 +2854,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" t="s">
@@ -2864,13 +2864,13 @@
         <v>203</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I10" s="5">
         <v>5</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2884,7 +2884,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" t="s">
@@ -2894,13 +2894,13 @@
         <v>203</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I11" s="5">
         <v>5</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2914,14 +2914,14 @@
         <v>3</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" t="s">
         <v>204</v>
       </c>
       <c r="G12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>222</v>
@@ -2930,7 +2930,7 @@
         <v>6</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2944,14 +2944,14 @@
         <v>4</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" t="s">
         <v>205</v>
       </c>
       <c r="G13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>222</v>
@@ -2960,7 +2960,7 @@
         <v>6</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2974,23 +2974,23 @@
         <v>4</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G14" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I14" s="5">
         <v>7</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -3004,23 +3004,23 @@
         <v>4</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G15" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I15" s="5">
         <v>7</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3034,7 +3034,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E16" s="5"/>
     </row>
@@ -3049,7 +3049,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E17" s="5"/>
     </row>
@@ -3064,7 +3064,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E18" s="5"/>
     </row>
@@ -3079,7 +3079,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E19" s="5"/>
     </row>
@@ -3094,7 +3094,7 @@
         <v>6</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E20" s="5"/>
     </row>
@@ -3109,7 +3109,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E21" s="5"/>
     </row>
@@ -3124,7 +3124,7 @@
         <v>6</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E22" s="5"/>
     </row>
@@ -3139,7 +3139,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E23" s="5"/>
     </row>
@@ -3154,7 +3154,7 @@
         <v>7</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E24" s="5"/>
     </row>
@@ -3169,7 +3169,7 @@
         <v>7</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E25" s="5"/>
     </row>
@@ -3184,7 +3184,7 @@
         <v>7</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E26" s="5"/>
     </row>
@@ -3199,7 +3199,7 @@
         <v>7</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E27" s="5"/>
     </row>
@@ -3214,7 +3214,7 @@
         <v>8</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E28" s="5"/>
     </row>
@@ -3229,7 +3229,7 @@
         <v>8</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E29" s="5"/>
     </row>

--- a/XCTFRoster2122.xlsx
+++ b/XCTFRoster2122.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgarnet0\Documents\GitHub\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49FDD01-4275-4261-BAA6-11566586AB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40AD021-3C18-410A-894E-CF6BF7D40F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1B02BDCC-3959-4059-9C9A-A0A28F1A0779}"/>
   </bookViews>
@@ -682,31 +682,31 @@
     <t>3x8</t>
   </si>
   <si>
-    <t>3x25</t>
-  </si>
-  <si>
     <t>3x10</t>
   </si>
   <si>
-    <t>2x8</t>
-  </si>
-  <si>
     <t>Bench</t>
   </si>
   <si>
-    <t>Step Ups</t>
-  </si>
-  <si>
     <t>Toe Taps</t>
   </si>
   <si>
-    <t>Tricep Curls</t>
-  </si>
-  <si>
-    <t>2x10</t>
-  </si>
-  <si>
-    <t>2x2min</t>
+    <t>Squats</t>
+  </si>
+  <si>
+    <t>3x6</t>
+  </si>
+  <si>
+    <t>3x30</t>
+  </si>
+  <si>
+    <t>3x12</t>
+  </si>
+  <si>
+    <t>2x1min Each</t>
+  </si>
+  <si>
+    <t>Dips</t>
   </si>
 </sst>
 </file>
@@ -2563,7 +2563,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2621,10 +2621,10 @@
         <v>191</v>
       </c>
       <c r="G2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="I2" s="5">
         <v>1</v>
@@ -2651,10 +2651,10 @@
         <v>192</v>
       </c>
       <c r="G3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="I3" s="5">
         <v>1</v>
@@ -2681,10 +2681,10 @@
         <v>193</v>
       </c>
       <c r="G4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="I4" s="5">
         <v>2</v>
@@ -2711,10 +2711,10 @@
         <v>194</v>
       </c>
       <c r="G5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="I5" s="5">
         <v>2</v>
@@ -2744,7 +2744,7 @@
         <v>201</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I6" s="5">
         <v>3</v>
@@ -2774,7 +2774,7 @@
         <v>201</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I7" s="5">
         <v>3</v>
@@ -2804,7 +2804,7 @@
         <v>202</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="I8" s="5">
         <v>4</v>
@@ -2834,7 +2834,7 @@
         <v>202</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="I9" s="5">
         <v>4</v>
@@ -2864,7 +2864,7 @@
         <v>203</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="I10" s="5">
         <v>5</v>
@@ -2894,7 +2894,7 @@
         <v>203</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="I11" s="5">
         <v>5</v>
@@ -2921,10 +2921,10 @@
         <v>204</v>
       </c>
       <c r="G12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I12" s="5">
         <v>6</v>
@@ -2951,10 +2951,10 @@
         <v>205</v>
       </c>
       <c r="G13" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I13" s="5">
         <v>6</v>
@@ -2981,10 +2981,10 @@
         <v>206</v>
       </c>
       <c r="G14" t="s">
+        <v>222</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="I14" s="5">
         <v>7</v>
@@ -3011,10 +3011,10 @@
         <v>207</v>
       </c>
       <c r="G15" t="s">
+        <v>222</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="I15" s="5">
         <v>7</v>

--- a/XCTFRoster2122.xlsx
+++ b/XCTFRoster2122.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgarnet0\Documents\GitHub\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40AD021-3C18-410A-894E-CF6BF7D40F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE494557-80BC-4451-9401-52CA4B315461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1B02BDCC-3959-4059-9C9A-A0A28F1A0779}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="223">
   <si>
     <t>First</t>
   </si>
@@ -2560,10 +2560,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A364778-3C6F-4471-AB5C-03062E76114C}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2621,10 +2621,10 @@
         <v>191</v>
       </c>
       <c r="G2" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="I2" s="5">
         <v>1</v>
@@ -2651,10 +2651,10 @@
         <v>192</v>
       </c>
       <c r="G3" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="I3" s="5">
         <v>1</v>
@@ -2681,10 +2681,10 @@
         <v>193</v>
       </c>
       <c r="G4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="I4" s="5">
         <v>2</v>
@@ -2711,10 +2711,10 @@
         <v>194</v>
       </c>
       <c r="G5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="I5" s="5">
         <v>2</v>
@@ -2741,10 +2741,10 @@
         <v>195</v>
       </c>
       <c r="G6" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="I6" s="5">
         <v>3</v>
@@ -2771,10 +2771,10 @@
         <v>196</v>
       </c>
       <c r="G7" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="I7" s="5">
         <v>3</v>
@@ -2861,10 +2861,10 @@
         <v>199</v>
       </c>
       <c r="G10" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="I10" s="5">
         <v>5</v>
@@ -2891,10 +2891,10 @@
         <v>200</v>
       </c>
       <c r="G11" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="I11" s="5">
         <v>5</v>
@@ -2921,10 +2921,10 @@
         <v>204</v>
       </c>
       <c r="G12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I12" s="5">
         <v>6</v>
@@ -2951,10 +2951,10 @@
         <v>205</v>
       </c>
       <c r="G13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I13" s="5">
         <v>6</v>
@@ -2981,10 +2981,10 @@
         <v>206</v>
       </c>
       <c r="G14" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I14" s="5">
         <v>7</v>
@@ -3011,10 +3011,10 @@
         <v>207</v>
       </c>
       <c r="G15" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I15" s="5">
         <v>7</v>
@@ -3203,41 +3203,11 @@
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>142</v>
-      </c>
-      <c r="B28" t="s">
-        <v>143</v>
-      </c>
-      <c r="C28" s="5">
-        <v>8</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>145</v>
-      </c>
-      <c r="B29" t="s">
-        <v>146</v>
-      </c>
-      <c r="C29" s="5">
-        <v>8</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E29" s="5"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D30">
-    <sortCondition ref="C2:C30"/>
-    <sortCondition ref="D2:D30"/>
-    <sortCondition ref="B2:B30"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D28">
+    <sortCondition ref="C2:C28"/>
+    <sortCondition ref="D2:D28"/>
+    <sortCondition ref="B2:B28"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/XCTFRoster2122.xlsx
+++ b/XCTFRoster2122.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgarnet0\Documents\GitHub\Calendar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgarnet0\Dropbox\2021XC\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8030A160-61A4-4FEE-B7B9-493DE5DB0AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EEFCB5-AC0E-4BC2-A127-1832B61C3475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1B02BDCC-3959-4059-9C9A-A0A28F1A0779}"/>
   </bookViews>
@@ -685,28 +685,28 @@
     <t>3x8</t>
   </si>
   <si>
-    <t>3x25</t>
-  </si>
-  <si>
     <t>3x10</t>
   </si>
   <si>
-    <t>Arm Extensions</t>
-  </si>
-  <si>
-    <t>2x10 each</t>
-  </si>
-  <si>
-    <t>Lunges</t>
-  </si>
-  <si>
-    <t>2x8</t>
-  </si>
-  <si>
-    <t>Wallsit</t>
-  </si>
-  <si>
-    <t>5min</t>
+    <t>Bench</t>
+  </si>
+  <si>
+    <t>Squats</t>
+  </si>
+  <si>
+    <t>3x6</t>
+  </si>
+  <si>
+    <t>3x30</t>
+  </si>
+  <si>
+    <t>3x12</t>
+  </si>
+  <si>
+    <t>Toe Taps</t>
+  </si>
+  <si>
+    <t>2x1min Each</t>
   </si>
 </sst>
 </file>
@@ -2563,7 +2563,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2621,10 +2621,10 @@
         <v>191</v>
       </c>
       <c r="G2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I2" s="5">
         <v>1</v>
@@ -2651,10 +2651,10 @@
         <v>192</v>
       </c>
       <c r="G3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I3" s="5">
         <v>1</v>
@@ -2681,10 +2681,10 @@
         <v>193</v>
       </c>
       <c r="G4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I4" s="5">
         <v>2</v>
@@ -2711,10 +2711,10 @@
         <v>194</v>
       </c>
       <c r="G5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I5" s="5">
         <v>2</v>
@@ -2744,7 +2744,7 @@
         <v>201</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I6" s="5">
         <v>3</v>
@@ -2774,7 +2774,7 @@
         <v>201</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I7" s="5">
         <v>3</v>
@@ -2804,7 +2804,7 @@
         <v>202</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="I8" s="5">
         <v>4</v>
@@ -2834,7 +2834,7 @@
         <v>202</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="I9" s="5">
         <v>4</v>
@@ -2864,7 +2864,7 @@
         <v>203</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I10" s="5">
         <v>5</v>
@@ -2894,7 +2894,7 @@
         <v>203</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I11" s="5">
         <v>5</v>
@@ -2984,7 +2984,7 @@
         <v>206</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I14" s="5">
         <v>7</v>
@@ -3014,7 +3014,7 @@
         <v>206</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I15" s="5">
         <v>7</v>

--- a/XCTFRoster2122.xlsx
+++ b/XCTFRoster2122.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgarnet0\Documents\GitHub\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE494557-80BC-4451-9401-52CA4B315461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98608F1-2CF4-49C8-A1AA-2F2547316EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1B02BDCC-3959-4059-9C9A-A0A28F1A0779}"/>
   </bookViews>
@@ -679,9 +679,6 @@
     <t>Reps</t>
   </si>
   <si>
-    <t>3x8</t>
-  </si>
-  <si>
     <t>3x10</t>
   </si>
   <si>
@@ -691,22 +688,25 @@
     <t>Toe Taps</t>
   </si>
   <si>
-    <t>Squats</t>
-  </si>
-  <si>
-    <t>3x6</t>
-  </si>
-  <si>
-    <t>3x30</t>
-  </si>
-  <si>
     <t>3x12</t>
   </si>
   <si>
-    <t>2x1min Each</t>
-  </si>
-  <si>
     <t>Dips</t>
+  </si>
+  <si>
+    <t>Wall Sit</t>
+  </si>
+  <si>
+    <t>2x2min</t>
+  </si>
+  <si>
+    <t>3x40</t>
+  </si>
+  <si>
+    <t>3x15</t>
+  </si>
+  <si>
+    <t>3x1min Each</t>
   </si>
 </sst>
 </file>
@@ -2563,7 +2563,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2624,7 +2624,7 @@
         <v>203</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I2" s="5">
         <v>1</v>
@@ -2654,7 +2654,7 @@
         <v>203</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I3" s="5">
         <v>1</v>
@@ -2681,10 +2681,10 @@
         <v>193</v>
       </c>
       <c r="G4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I4" s="5">
         <v>2</v>
@@ -2711,10 +2711,10 @@
         <v>194</v>
       </c>
       <c r="G5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I5" s="5">
         <v>2</v>
@@ -2741,10 +2741,10 @@
         <v>195</v>
       </c>
       <c r="G6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I6" s="5">
         <v>3</v>
@@ -2771,10 +2771,10 @@
         <v>196</v>
       </c>
       <c r="G7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I7" s="5">
         <v>3</v>
@@ -2804,7 +2804,7 @@
         <v>202</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I8" s="5">
         <v>4</v>
@@ -2834,7 +2834,7 @@
         <v>202</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I9" s="5">
         <v>4</v>
@@ -2861,7 +2861,7 @@
         <v>199</v>
       </c>
       <c r="G10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>213</v>
@@ -2891,7 +2891,7 @@
         <v>200</v>
       </c>
       <c r="G11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>213</v>
@@ -2921,10 +2921,10 @@
         <v>204</v>
       </c>
       <c r="G12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I12" s="5">
         <v>6</v>
@@ -2951,10 +2951,10 @@
         <v>205</v>
       </c>
       <c r="G13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I13" s="5">
         <v>6</v>
@@ -2984,7 +2984,7 @@
         <v>201</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I14" s="5">
         <v>7</v>
@@ -3014,7 +3014,7 @@
         <v>201</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I15" s="5">
         <v>7</v>

--- a/XCTFRoster2122.xlsx
+++ b/XCTFRoster2122.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgarnet0\Documents\GitHub\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98608F1-2CF4-49C8-A1AA-2F2547316EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863344C8-8E17-4951-A376-2C7A414A055E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1B02BDCC-3959-4059-9C9A-A0A28F1A0779}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$52</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="227">
   <si>
     <t>First</t>
   </si>
@@ -707,6 +708,18 @@
   </si>
   <si>
     <t>3x1min Each</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Luke</t>
+  </si>
+  <si>
+    <t>Garnett</t>
+  </si>
+  <si>
+    <t>Bus</t>
   </si>
 </sst>
 </file>
@@ -2559,10 +2572,344 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E667D107-2BEF-4871-9309-2F1A0CC00825}">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>224</v>
+      </c>
+      <c r="B28" t="s">
+        <v>225</v>
+      </c>
+      <c r="C28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>226</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C31">
+    <sortCondition ref="C2:C31"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A364778-3C6F-4471-AB5C-03062E76114C}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>

--- a/XCTFRoster2122.xlsx
+++ b/XCTFRoster2122.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgarnet0\Documents\GitHub\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863344C8-8E17-4951-A376-2C7A414A055E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280CFDCB-682E-46A6-A51E-0B39576CF72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1B02BDCC-3959-4059-9C9A-A0A28F1A0779}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$52</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="228">
   <si>
     <t>First</t>
   </si>
@@ -719,7 +720,10 @@
     <t>Garnett</t>
   </si>
   <si>
-    <t>Bus</t>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Bus Driver</t>
   </si>
 </sst>
 </file>
@@ -2576,7 +2580,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection sqref="A1:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2891,7 +2895,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C29">
         <v>10</v>
@@ -3558,4 +3562,313 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99AC308-37F2-4FCE-A308-7786A54CD7F8}">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/XCTFRoster2122.xlsx
+++ b/XCTFRoster2122.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgarnet0\Documents\GitHub\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280CFDCB-682E-46A6-A51E-0B39576CF72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432E3230-220A-43BE-82D5-A1A9AD75C261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1B02BDCC-3959-4059-9C9A-A0A28F1A0779}"/>
+    <workbookView minimized="1" xWindow="9900" yWindow="3315" windowWidth="16590" windowHeight="11385" activeTab="4" xr2:uid="{1B02BDCC-3959-4059-9C9A-A0A28F1A0779}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$52</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="230">
   <si>
     <t>First</t>
   </si>
@@ -720,10 +721,16 @@
     <t>Garnett</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Bus Driver</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -2579,8 +2586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E667D107-2BEF-4871-9309-2F1A0CC00825}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C29"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2895,7 +2902,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C29">
         <v>10</v>
@@ -2906,6 +2913,7 @@
     <sortCondition ref="C2:C31"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3566,10 +3574,502 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99AC308-37F2-4FCE-A308-7786A54CD7F8}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H5" t="s">
+        <v>140</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H6" t="s">
+        <v>163</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C30">
+    <sortCondition ref="C2:C30"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1618853C-81B8-4D16-9F6B-6103B568C067}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3581,115 +4081,118 @@
       <c r="B1" t="s">
         <v>2</v>
       </c>
+      <c r="C1" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>549670</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>547765</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>548826</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>547868</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>539731</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>549209</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>547582</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" t="s">
-        <v>226</v>
+        <v>159</v>
+      </c>
+      <c r="C9">
+        <v>549410</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" t="s">
-        <v>226</v>
+        <v>172</v>
+      </c>
+      <c r="C10">
+        <v>552627</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
-      </c>
-      <c r="C11" t="s">
-        <v>226</v>
+        <v>136</v>
+      </c>
+      <c r="C11">
+        <v>543796</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3699,176 +4202,179 @@
       <c r="B12" t="s">
         <v>175</v>
       </c>
-      <c r="C12" t="s">
-        <v>226</v>
+      <c r="C12">
+        <v>552382</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>543672</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" t="s">
-        <v>226</v>
+        <v>72</v>
+      </c>
+      <c r="C14">
+        <v>543524</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>543673</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>555388</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>549584</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>544383</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>547466</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>543888</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>544843</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="B22" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>547364</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="C23">
-        <v>17</v>
+        <v>547204</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>159</v>
+        <v>36</v>
       </c>
       <c r="C24">
-        <v>18</v>
+        <v>537886</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C25">
-        <v>19</v>
+        <v>547227</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>540472</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="B27" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>547323</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B29">
+    <sortCondition ref="B2:B29"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/XCTFRoster2122.xlsx
+++ b/XCTFRoster2122.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgarnet0\Documents\GitHub\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432E3230-220A-43BE-82D5-A1A9AD75C261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91B168C-342A-428B-8BA7-94E6D23594DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="9900" yWindow="3315" windowWidth="16590" windowHeight="11385" activeTab="4" xr2:uid="{1B02BDCC-3959-4059-9C9A-A0A28F1A0779}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{1B02BDCC-3959-4059-9C9A-A0A28F1A0779}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="230">
   <si>
     <t>First</t>
   </si>
@@ -775,7 +775,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -784,6 +784,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3574,15 +3575,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99AC308-37F2-4FCE-A308-7786A54CD7F8}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="5"/>
+    <col min="15" max="15" width="10.85546875" customWidth="1"/>
+    <col min="16" max="16" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3595,8 +3602,23 @@
       <c r="D1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>155</v>
       </c>
@@ -3609,6 +3631,9 @@
       <c r="D2">
         <v>1</v>
       </c>
+      <c r="E2" s="6">
+        <v>3.9467592592592592E-3</v>
+      </c>
       <c r="G2" t="s">
         <v>155</v>
       </c>
@@ -3618,8 +3643,27 @@
       <c r="I2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>155</v>
+      </c>
+      <c r="M2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N2" s="5">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="6">
+        <f>E2+E20</f>
+        <v>9.3171296296296301E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>120</v>
       </c>
@@ -3632,6 +3676,9 @@
       <c r="D3">
         <v>2</v>
       </c>
+      <c r="E3" s="6">
+        <v>3.9930555555555561E-3</v>
+      </c>
       <c r="G3" t="s">
         <v>120</v>
       </c>
@@ -3641,19 +3688,41 @@
       <c r="I3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N3" s="5">
+        <v>2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>74</v>
+      </c>
+      <c r="P3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q3" s="6">
+        <f>E3+E19</f>
+        <v>9.3518518518518525E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="E4" s="6">
+        <v>4.0393518518518521E-3</v>
       </c>
       <c r="G4" t="s">
         <v>131</v>
@@ -3664,19 +3733,41 @@
       <c r="I4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>131</v>
+      </c>
+      <c r="M4" t="s">
+        <v>132</v>
+      </c>
+      <c r="N4" s="5">
+        <v>3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q4" s="6">
+        <f>E5+E17</f>
+        <v>9.2129629629629627E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4.0509259259259257E-3</v>
       </c>
       <c r="G5" t="s">
         <v>139</v>
@@ -3687,19 +3778,41 @@
       <c r="I5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>139</v>
+      </c>
+      <c r="M5" t="s">
+        <v>140</v>
+      </c>
+      <c r="N5" s="5">
+        <v>4</v>
+      </c>
+      <c r="O5" t="s">
+        <v>89</v>
+      </c>
+      <c r="P5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q5" s="6">
+        <f>E7+E18</f>
+        <v>9.3634259259259261E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4.0509259259259257E-3</v>
       </c>
       <c r="G6" t="s">
         <v>162</v>
@@ -3710,19 +3823,41 @@
       <c r="I6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>162</v>
+      </c>
+      <c r="M6" t="s">
+        <v>163</v>
+      </c>
+      <c r="N6" s="5">
+        <v>5</v>
+      </c>
+      <c r="O6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q6" s="6">
+        <f>E4+E16</f>
+        <v>9.1782407407407403E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="E7" s="6">
+        <v>4.1666666666666666E-3</v>
       </c>
       <c r="G7" t="s">
         <v>158</v>
@@ -3733,19 +3868,41 @@
       <c r="I7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M7" t="s">
+        <v>159</v>
+      </c>
+      <c r="N7" s="5">
+        <v>6</v>
+      </c>
+      <c r="O7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="6">
+        <f>E6+E15</f>
+        <v>9.1550925925925931E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="E8" s="6">
+        <v>4.4675925925925933E-3</v>
       </c>
       <c r="G8" t="s">
         <v>151</v>
@@ -3756,19 +3913,41 @@
       <c r="I8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>151</v>
+      </c>
+      <c r="M8" t="s">
+        <v>152</v>
+      </c>
+      <c r="N8" s="5">
+        <v>7</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q8" s="6">
+        <f>E9+E13</f>
+        <v>9.479166666666667E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E9" s="6">
+        <v>4.5717592592592589E-3</v>
       </c>
       <c r="G9" t="s">
         <v>134</v>
@@ -3779,19 +3958,41 @@
       <c r="I9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>134</v>
+      </c>
+      <c r="M9" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" s="5">
+        <v>8</v>
+      </c>
+      <c r="O9" t="s">
+        <v>99</v>
+      </c>
+      <c r="P9" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="6">
+        <f>E11+E10</f>
+        <v>9.4560185185185181E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4.6874999999999998E-3</v>
       </c>
       <c r="G10" t="s">
         <v>40</v>
@@ -3802,20 +4003,42 @@
       <c r="I10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="5">
+        <v>9</v>
+      </c>
+      <c r="O10" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q10" s="6">
+        <f>E12+E8</f>
+        <v>9.3402777777777789E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
+      <c r="E11" s="6">
+        <v>4.7685185185185183E-3</v>
+      </c>
       <c r="G11" t="s">
         <v>81</v>
       </c>
@@ -3826,19 +4049,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>10</v>
       </c>
+      <c r="E12" s="6">
+        <v>4.8726851851851856E-3</v>
+      </c>
       <c r="G12" t="s">
         <v>99</v>
       </c>
@@ -3849,7 +4075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -3862,6 +4088,9 @@
       <c r="D13">
         <v>9</v>
       </c>
+      <c r="E13" s="6">
+        <v>4.9074074074074072E-3</v>
+      </c>
       <c r="G13" t="s">
         <v>63</v>
       </c>
@@ -3872,7 +4101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>96</v>
       </c>
@@ -3885,6 +4114,9 @@
       <c r="D14">
         <v>8</v>
       </c>
+      <c r="E14" s="6">
+        <v>5.0925925925925921E-3</v>
+      </c>
       <c r="G14" t="s">
         <v>96</v>
       </c>
@@ -3895,7 +4127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -3908,6 +4140,9 @@
       <c r="D15">
         <v>7</v>
       </c>
+      <c r="E15" s="6">
+        <v>5.1041666666666666E-3</v>
+      </c>
       <c r="G15" t="s">
         <v>35</v>
       </c>
@@ -3918,7 +4153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -3931,6 +4166,9 @@
       <c r="D16">
         <v>6</v>
       </c>
+      <c r="E16" s="6">
+        <v>5.138888888888889E-3</v>
+      </c>
       <c r="G16" t="s">
         <v>43</v>
       </c>
@@ -3943,16 +4181,19 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E17" s="6">
+        <v>5.162037037037037E-3</v>
       </c>
       <c r="G17" t="s">
         <v>89</v>
@@ -3966,16 +4207,19 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E18" s="6">
+        <v>5.1967592592592595E-3</v>
       </c>
       <c r="G18" t="s">
         <v>71</v>
@@ -4000,6 +4244,9 @@
       <c r="D19">
         <v>3</v>
       </c>
+      <c r="E19" s="6">
+        <v>5.3587962962962964E-3</v>
+      </c>
       <c r="G19" t="s">
         <v>74</v>
       </c>
@@ -4023,6 +4270,9 @@
       <c r="D20">
         <v>2</v>
       </c>
+      <c r="E20" s="6">
+        <v>5.37037037037037E-3</v>
+      </c>
       <c r="G20" t="s">
         <v>77</v>
       </c>
@@ -4046,6 +4296,9 @@
       <c r="D21">
         <v>1</v>
       </c>
+      <c r="E21" s="6">
+        <v>5.7870370370370376E-3</v>
+      </c>
       <c r="G21" t="s">
         <v>108</v>
       </c>
@@ -4057,8 +4310,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C30">
-    <sortCondition ref="C2:C30"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E22">
+    <sortCondition ref="E2:E22"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4068,7 +4321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1618853C-81B8-4D16-9F6B-6103B568C067}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
